--- a/data/trans_orig/Q5403-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5403-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{78A0CF21-2414-4B14-B2B6-778DB061252B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{80FCF7C1-A39F-48EE-A746-0F9683D3620F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9D94F264-51CE-4B19-81D4-DA75E8F14F2D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FC104987-6D6C-4E49-B8F6-A99BF9A6E7F0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="130">
   <si>
     <t>Población según si es capaz de ir de compras en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -101,52 +101,52 @@
     <t>4,04%</t>
   </si>
   <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
   </si>
   <si>
     <t>8,16%</t>
   </si>
   <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
   </si>
   <si>
     <t>6,41%</t>
   </si>
   <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
   </si>
   <si>
     <t>7,99%</t>
   </si>
   <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
   </si>
   <si>
     <t>14,0%</t>
   </si>
   <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
   </si>
   <si>
     <t>11,44%</t>
   </si>
   <si>
-    <t>9,57%</t>
+    <t>9,71%</t>
   </si>
   <si>
     <t>13,39%</t>
@@ -155,16 +155,16 @@
     <t>87,97%</t>
   </si>
   <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
   </si>
   <si>
     <t>77,84%</t>
   </si>
   <si>
-    <t>74,56%</t>
+    <t>74,42%</t>
   </si>
   <si>
     <t>81,0%</t>
@@ -173,10 +173,10 @@
     <t>82,15%</t>
   </si>
   <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
   </si>
   <si>
     <t>100%</t>
@@ -194,25 +194,25 @@
     <t>6,71%</t>
   </si>
   <si>
-    <t>12,03%</t>
+    <t>11,86%</t>
   </si>
   <si>
     <t>15,08%</t>
   </si>
   <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
   </si>
   <si>
     <t>12,49%</t>
   </si>
   <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
   </si>
   <si>
     <t>10,81%</t>
@@ -221,52 +221,49 @@
     <t>8,24%</t>
   </si>
   <si>
-    <t>13,81%</t>
+    <t>14,22%</t>
   </si>
   <si>
     <t>13,85%</t>
   </si>
   <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
   </si>
   <si>
     <t>12,54%</t>
   </si>
   <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
   </si>
   <si>
     <t>80,14%</t>
   </si>
   <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
+    <t>75,99%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
   </si>
   <si>
     <t>71,07%</t>
   </si>
   <si>
-    <t>67,48%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
+    <t>67,4%</t>
   </si>
   <si>
     <t>74,97%</t>
   </si>
   <si>
-    <t>72,5%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
   </si>
   <si>
     <t>Población según si es capaz de ir de compras en 2015 (Tasa respuesta: 19,52%)</t>
@@ -275,61 +272,58 @@
     <t>6,61%</t>
   </si>
   <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
   </si>
   <si>
     <t>9,1%</t>
   </si>
   <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
+    <t>6,85%</t>
   </si>
   <si>
     <t>8,02%</t>
   </si>
   <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
   </si>
   <si>
     <t>7,07%</t>
   </si>
   <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
   </si>
   <si>
     <t>16,01%</t>
   </si>
   <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
   </si>
   <si>
     <t>12,15%</t>
   </si>
   <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
   </si>
   <si>
     <t>86,32%</t>
   </si>
   <si>
-    <t>83,67%</t>
+    <t>83,36%</t>
   </si>
   <si>
     <t>88,84%</t>
@@ -338,19 +332,19 @@
     <t>74,9%</t>
   </si>
   <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>78,38%</t>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>78,4%</t>
   </si>
   <si>
     <t>79,83%</t>
   </si>
   <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
   </si>
   <si>
     <t>Población según si es capaz de ir de compras en 2023 (Tasa respuesta: 31,22%)</t>
@@ -359,73 +353,73 @@
     <t>6,99%</t>
   </si>
   <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
   </si>
   <si>
     <t>14,04%</t>
   </si>
   <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
   </si>
   <si>
     <t>11,2%</t>
   </si>
   <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
   </si>
   <si>
     <t>9,72%</t>
   </si>
   <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
   </si>
   <si>
     <t>15,23%</t>
   </si>
   <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
   </si>
   <si>
     <t>13,01%</t>
   </si>
   <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
   </si>
   <si>
     <t>83,29%</t>
   </si>
   <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
   </si>
   <si>
     <t>70,73%</t>
   </si>
   <si>
-    <t>66,25%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
+    <t>66,33%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
   </si>
   <si>
     <t>75,8%</t>
@@ -434,7 +428,7 @@
     <t>73,39%</t>
   </si>
   <si>
-    <t>80,52%</t>
+    <t>81,74%</t>
   </si>
 </sst>
 </file>
@@ -846,7 +840,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6643EAE3-F327-44B0-8DB1-ABB13702C289}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C07CCFBB-9C1D-48E1-9467-006E400F7CE8}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2302,7 +2296,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E165B6D7-971A-42E2-AC50-D71136CC07C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79DDEF17-C3B5-4C36-A006-B5C08E5259DE}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3459,7 +3453,7 @@
         <v>71</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="M26" s="7">
         <v>904</v>
@@ -3468,13 +3462,13 @@
         <v>976557</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3665,7 +3659,7 @@
         <v>71</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="M30" s="7">
         <v>904</v>
@@ -3674,13 +3668,13 @@
         <v>976557</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3758,7 +3752,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D546FB5-52AA-4ED1-97E4-C864EA1BDE60}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58CF42E1-B512-4F51-A409-F312316C2B1E}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3775,7 +3769,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4792,13 +4786,13 @@
         <v>39093</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H24" s="7">
         <v>55</v>
@@ -4807,13 +4801,13 @@
         <v>70756</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K24" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="L24" s="7" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="M24" s="7">
         <v>99</v>
@@ -4822,13 +4816,13 @@
         <v>109849</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4843,13 +4837,13 @@
         <v>41826</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="H25" s="7">
         <v>100</v>
@@ -4858,13 +4852,13 @@
         <v>124534</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M25" s="7">
         <v>145</v>
@@ -4873,13 +4867,13 @@
         <v>166360</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4894,13 +4888,13 @@
         <v>510409</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H26" s="7">
         <v>500</v>
@@ -4909,13 +4903,13 @@
         <v>582641</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M26" s="7">
         <v>1038</v>
@@ -4924,13 +4918,13 @@
         <v>1093050</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4998,13 +4992,13 @@
         <v>39093</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H28" s="7">
         <v>55</v>
@@ -5013,13 +5007,13 @@
         <v>70756</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K28" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="L28" s="7" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="M28" s="7">
         <v>99</v>
@@ -5028,13 +5022,13 @@
         <v>109849</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5049,13 +5043,13 @@
         <v>41826</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="H29" s="7">
         <v>100</v>
@@ -5064,13 +5058,13 @@
         <v>124534</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M29" s="7">
         <v>145</v>
@@ -5079,13 +5073,13 @@
         <v>166360</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5100,13 +5094,13 @@
         <v>510409</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H30" s="7">
         <v>500</v>
@@ -5115,13 +5109,13 @@
         <v>582641</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M30" s="7">
         <v>1038</v>
@@ -5130,13 +5124,13 @@
         <v>1093050</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5214,7 +5208,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1083A9E0-C01A-4DFB-83ED-65560C63866C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03094A6A-000D-4818-A383-F6F59272FE7C}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5231,7 +5225,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6248,13 +6242,13 @@
         <v>48544</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H24" s="7">
         <v>258</v>
@@ -6263,13 +6257,13 @@
         <v>144067</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M24" s="7">
         <v>336</v>
@@ -6278,13 +6272,13 @@
         <v>192611</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6299,13 +6293,13 @@
         <v>67466</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H25" s="7">
         <v>292</v>
@@ -6314,13 +6308,13 @@
         <v>156309</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M25" s="7">
         <v>392</v>
@@ -6329,13 +6323,13 @@
         <v>223774</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6350,13 +6344,13 @@
         <v>578055</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H26" s="7">
         <v>1157</v>
@@ -6365,13 +6359,13 @@
         <v>725826</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M26" s="7">
         <v>2002</v>
@@ -6380,13 +6374,13 @@
         <v>1303882</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6454,13 +6448,13 @@
         <v>48544</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H28" s="7">
         <v>258</v>
@@ -6469,13 +6463,13 @@
         <v>144067</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M28" s="7">
         <v>336</v>
@@ -6484,13 +6478,13 @@
         <v>192611</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6505,13 +6499,13 @@
         <v>67466</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H29" s="7">
         <v>292</v>
@@ -6520,13 +6514,13 @@
         <v>156309</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M29" s="7">
         <v>392</v>
@@ -6535,13 +6529,13 @@
         <v>223774</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6556,13 +6550,13 @@
         <v>578055</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H30" s="7">
         <v>1157</v>
@@ -6571,13 +6565,13 @@
         <v>725826</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M30" s="7">
         <v>2002</v>
@@ -6586,13 +6580,13 @@
         <v>1303882</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/Q5403-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5403-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80FCF7C1-A39F-48EE-A746-0F9683D3620F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{80955F10-F7E2-4E50-8050-9E12280C2879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FC104987-6D6C-4E49-B8F6-A99BF9A6E7F0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C5AC5716-7779-40AE-B892-353AADCFA0D8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="128">
   <si>
     <t>Población según si es capaz de ir de compras en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -101,46 +101,46 @@
     <t>4,04%</t>
   </si>
   <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
   </si>
   <si>
     <t>8,16%</t>
   </si>
   <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
   </si>
   <si>
     <t>6,41%</t>
   </si>
   <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
   </si>
   <si>
     <t>7,99%</t>
   </si>
   <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
   </si>
   <si>
     <t>14,0%</t>
   </si>
   <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
   </si>
   <si>
     <t>11,44%</t>
@@ -149,34 +149,34 @@
     <t>9,71%</t>
   </si>
   <si>
-    <t>13,39%</t>
+    <t>13,33%</t>
   </si>
   <si>
     <t>87,97%</t>
   </si>
   <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
   </si>
   <si>
     <t>77,84%</t>
   </si>
   <si>
-    <t>74,42%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
   </si>
   <si>
     <t>82,15%</t>
   </si>
   <si>
-    <t>80,07%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
   </si>
   <si>
     <t>100%</t>
@@ -191,160 +191,154 @@
     <t>9,05%</t>
   </si>
   <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
   </si>
   <si>
     <t>15,08%</t>
   </si>
   <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
   </si>
   <si>
     <t>12,49%</t>
   </si>
   <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
   </si>
   <si>
     <t>10,81%</t>
   </si>
   <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
+    <t>8,18%</t>
   </si>
   <si>
     <t>13,85%</t>
   </si>
   <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
   </si>
   <si>
     <t>80,14%</t>
   </si>
   <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
   </si>
   <si>
     <t>71,07%</t>
   </si>
   <si>
-    <t>67,4%</t>
+    <t>67,33%</t>
+  </si>
+  <si>
+    <t>74,17%</t>
   </si>
   <si>
     <t>74,97%</t>
   </si>
   <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de ir de compras en 2015 (Tasa respuesta: 19,52%)</t>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de ir de compras en 2016 (Tasa respuesta: 19,52%)</t>
   </si>
   <si>
     <t>6,61%</t>
   </si>
   <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
   </si>
   <si>
     <t>9,1%</t>
   </si>
   <si>
-    <t>6,85%</t>
+    <t>6,76%</t>
   </si>
   <si>
     <t>8,02%</t>
   </si>
   <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
   </si>
   <si>
     <t>7,07%</t>
   </si>
   <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
   </si>
   <si>
     <t>16,01%</t>
   </si>
   <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
   </si>
   <si>
     <t>86,32%</t>
   </si>
   <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
   </si>
   <si>
     <t>74,9%</t>
   </si>
   <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>78,4%</t>
+    <t>71,46%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
   </si>
   <si>
     <t>79,83%</t>
   </si>
   <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
   </si>
   <si>
     <t>Población según si es capaz de ir de compras en 2023 (Tasa respuesta: 31,22%)</t>
@@ -840,7 +834,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C07CCFBB-9C1D-48E1-9467-006E400F7CE8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8BF06E7-EEEA-4163-B06C-B2CC96B0967F}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2296,7 +2290,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79DDEF17-C3B5-4C36-A006-B5C08E5259DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA904EF8-B008-4443-9B34-D206775A9DC3}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3396,13 +3390,13 @@
         <v>102906</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="M25" s="7">
         <v>147</v>
@@ -3411,13 +3405,13 @@
         <v>163399</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3432,13 +3426,13 @@
         <v>448492</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="H26" s="7">
         <v>498</v>
@@ -3447,13 +3441,13 @@
         <v>528065</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="M26" s="7">
         <v>904</v>
@@ -3462,13 +3456,13 @@
         <v>976557</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3602,13 +3596,13 @@
         <v>102906</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="M29" s="7">
         <v>147</v>
@@ -3617,13 +3611,13 @@
         <v>163399</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3638,13 +3632,13 @@
         <v>448492</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="H30" s="7">
         <v>498</v>
@@ -3653,13 +3647,13 @@
         <v>528065</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="M30" s="7">
         <v>904</v>
@@ -3668,13 +3662,13 @@
         <v>976557</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3752,7 +3746,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58CF42E1-B512-4F51-A409-F312316C2B1E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07804A44-829F-43F2-847A-47A5C0DC551D}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3769,7 +3763,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4786,13 +4780,13 @@
         <v>39093</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="H24" s="7">
         <v>55</v>
@@ -4801,10 +4795,10 @@
         <v>70756</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>32</v>
@@ -4816,13 +4810,13 @@
         <v>109849</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4837,13 +4831,13 @@
         <v>41826</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="H25" s="7">
         <v>100</v>
@@ -4852,13 +4846,13 @@
         <v>124534</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="M25" s="7">
         <v>145</v>
@@ -4867,13 +4861,13 @@
         <v>166360</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4888,13 +4882,13 @@
         <v>510409</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="H26" s="7">
         <v>500</v>
@@ -4903,13 +4897,13 @@
         <v>582641</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="M26" s="7">
         <v>1038</v>
@@ -4918,13 +4912,13 @@
         <v>1093050</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4992,13 +4986,13 @@
         <v>39093</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="H28" s="7">
         <v>55</v>
@@ -5007,10 +5001,10 @@
         <v>70756</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>32</v>
@@ -5022,13 +5016,13 @@
         <v>109849</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5043,13 +5037,13 @@
         <v>41826</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="H29" s="7">
         <v>100</v>
@@ -5058,13 +5052,13 @@
         <v>124534</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="M29" s="7">
         <v>145</v>
@@ -5073,13 +5067,13 @@
         <v>166360</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5094,13 +5088,13 @@
         <v>510409</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="H30" s="7">
         <v>500</v>
@@ -5109,13 +5103,13 @@
         <v>582641</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="M30" s="7">
         <v>1038</v>
@@ -5124,13 +5118,13 @@
         <v>1093050</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5208,7 +5202,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03094A6A-000D-4818-A383-F6F59272FE7C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F934108E-1D87-4CEC-BF30-8EAB5D60CC9A}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5225,7 +5219,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6242,13 +6236,13 @@
         <v>48544</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="H24" s="7">
         <v>258</v>
@@ -6257,13 +6251,13 @@
         <v>144067</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M24" s="7">
         <v>336</v>
@@ -6272,13 +6266,13 @@
         <v>192611</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6293,13 +6287,13 @@
         <v>67466</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="H25" s="7">
         <v>292</v>
@@ -6308,13 +6302,13 @@
         <v>156309</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M25" s="7">
         <v>392</v>
@@ -6323,13 +6317,13 @@
         <v>223774</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6344,13 +6338,13 @@
         <v>578055</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="H26" s="7">
         <v>1157</v>
@@ -6359,13 +6353,13 @@
         <v>725826</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M26" s="7">
         <v>2002</v>
@@ -6374,13 +6368,13 @@
         <v>1303882</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6448,13 +6442,13 @@
         <v>48544</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="H28" s="7">
         <v>258</v>
@@ -6463,13 +6457,13 @@
         <v>144067</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M28" s="7">
         <v>336</v>
@@ -6478,13 +6472,13 @@
         <v>192611</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6499,13 +6493,13 @@
         <v>67466</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="H29" s="7">
         <v>292</v>
@@ -6514,13 +6508,13 @@
         <v>156309</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M29" s="7">
         <v>392</v>
@@ -6529,13 +6523,13 @@
         <v>223774</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6550,13 +6544,13 @@
         <v>578055</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="H30" s="7">
         <v>1157</v>
@@ -6565,13 +6559,13 @@
         <v>725826</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M30" s="7">
         <v>2002</v>
@@ -6580,13 +6574,13 @@
         <v>1303882</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/Q5403-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5403-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80955F10-F7E2-4E50-8050-9E12280C2879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E038F00-4104-4C6F-8F5E-1809B3C230CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C5AC5716-7779-40AE-B892-353AADCFA0D8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BDC575F0-710C-4E6D-8A1F-BFB236D5F8D0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="132">
   <si>
     <t>Población según si es capaz de ir de compras en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -101,319 +101,331 @@
     <t>4,04%</t>
   </si>
   <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
   </si>
   <si>
     <t>8,16%</t>
   </si>
   <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
   </si>
   <si>
     <t>6,41%</t>
   </si>
   <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
   </si>
   <si>
     <t>7,99%</t>
   </si>
   <si>
-    <t>5,9%</t>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>74,56%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de ir de compras en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
   </si>
   <si>
     <t>10,75%</t>
   </si>
   <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>71,07%</t>
+  </si>
+  <si>
+    <t>67,48%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>74,97%</t>
+  </si>
+  <si>
+    <t>72,5%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de ir de compras en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>74,9%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de ir de compras en 2023 (Tasa respuesta: 31,22%)</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
   </si>
   <si>
     <t>80,64%</t>
   </si>
   <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de ir de compras en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>67,33%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>74,97%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de ir de compras en 2016 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>71,46%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de ir de compras en 2023 (Tasa respuesta: 31,22%)</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
+    <t>85,29%</t>
   </si>
   <si>
     <t>70,73%</t>
   </si>
   <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
+    <t>66,25%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
   </si>
   <si>
     <t>75,8%</t>
@@ -422,7 +434,7 @@
     <t>73,39%</t>
   </si>
   <si>
-    <t>81,74%</t>
+    <t>80,52%</t>
   </si>
 </sst>
 </file>
@@ -834,7 +846,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8BF06E7-EEEA-4163-B06C-B2CC96B0967F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FB1AD89-CFCC-4AC2-A650-6397D5EA199D}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2290,7 +2302,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA904EF8-B008-4443-9B34-D206775A9DC3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAA71F85-2DB9-4D24-AEC7-53445682869E}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3390,13 +3402,13 @@
         <v>102906</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M25" s="7">
         <v>147</v>
@@ -3405,13 +3417,13 @@
         <v>163399</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3426,13 +3438,13 @@
         <v>448492</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H26" s="7">
         <v>498</v>
@@ -3441,13 +3453,13 @@
         <v>528065</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M26" s="7">
         <v>904</v>
@@ -3456,13 +3468,13 @@
         <v>976557</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3596,13 +3608,13 @@
         <v>102906</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M29" s="7">
         <v>147</v>
@@ -3611,13 +3623,13 @@
         <v>163399</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3632,13 +3644,13 @@
         <v>448492</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H30" s="7">
         <v>498</v>
@@ -3647,13 +3659,13 @@
         <v>528065</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M30" s="7">
         <v>904</v>
@@ -3662,13 +3674,13 @@
         <v>976557</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3746,7 +3758,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07804A44-829F-43F2-847A-47A5C0DC551D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B50A006-DEB3-4B47-9FF6-CED23C2C00AF}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3763,7 +3775,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4780,13 +4792,13 @@
         <v>39093</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H24" s="7">
         <v>55</v>
@@ -4795,13 +4807,13 @@
         <v>70756</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="M24" s="7">
         <v>99</v>
@@ -4810,13 +4822,13 @@
         <v>109849</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4831,13 +4843,13 @@
         <v>41826</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H25" s="7">
         <v>100</v>
@@ -4846,13 +4858,13 @@
         <v>124534</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M25" s="7">
         <v>145</v>
@@ -4861,13 +4873,13 @@
         <v>166360</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4882,13 +4894,13 @@
         <v>510409</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H26" s="7">
         <v>500</v>
@@ -4897,13 +4909,13 @@
         <v>582641</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M26" s="7">
         <v>1038</v>
@@ -4912,13 +4924,13 @@
         <v>1093050</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4986,13 +4998,13 @@
         <v>39093</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H28" s="7">
         <v>55</v>
@@ -5001,13 +5013,13 @@
         <v>70756</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="M28" s="7">
         <v>99</v>
@@ -5016,13 +5028,13 @@
         <v>109849</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5037,13 +5049,13 @@
         <v>41826</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H29" s="7">
         <v>100</v>
@@ -5052,13 +5064,13 @@
         <v>124534</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M29" s="7">
         <v>145</v>
@@ -5067,13 +5079,13 @@
         <v>166360</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5088,13 +5100,13 @@
         <v>510409</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H30" s="7">
         <v>500</v>
@@ -5103,13 +5115,13 @@
         <v>582641</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M30" s="7">
         <v>1038</v>
@@ -5118,13 +5130,13 @@
         <v>1093050</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5202,7 +5214,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F934108E-1D87-4CEC-BF30-8EAB5D60CC9A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BC02A28-B33E-4B42-BC44-9093ACCE2DA9}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5219,7 +5231,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6236,13 +6248,13 @@
         <v>48544</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H24" s="7">
         <v>258</v>
@@ -6251,13 +6263,13 @@
         <v>144067</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="M24" s="7">
         <v>336</v>
@@ -6266,13 +6278,13 @@
         <v>192611</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6287,13 +6299,13 @@
         <v>67466</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H25" s="7">
         <v>292</v>
@@ -6302,13 +6314,13 @@
         <v>156309</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="M25" s="7">
         <v>392</v>
@@ -6317,13 +6329,13 @@
         <v>223774</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6338,13 +6350,13 @@
         <v>578055</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H26" s="7">
         <v>1157</v>
@@ -6353,13 +6365,13 @@
         <v>725826</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="M26" s="7">
         <v>2002</v>
@@ -6368,13 +6380,13 @@
         <v>1303882</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6442,13 +6454,13 @@
         <v>48544</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H28" s="7">
         <v>258</v>
@@ -6457,13 +6469,13 @@
         <v>144067</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="M28" s="7">
         <v>336</v>
@@ -6472,13 +6484,13 @@
         <v>192611</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6493,13 +6505,13 @@
         <v>67466</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H29" s="7">
         <v>292</v>
@@ -6508,13 +6520,13 @@
         <v>156309</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="M29" s="7">
         <v>392</v>
@@ -6523,13 +6535,13 @@
         <v>223774</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6544,13 +6556,13 @@
         <v>578055</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H30" s="7">
         <v>1157</v>
@@ -6559,13 +6571,13 @@
         <v>725826</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="M30" s="7">
         <v>2002</v>
@@ -6574,13 +6586,13 @@
         <v>1303882</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/Q5403-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5403-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E038F00-4104-4C6F-8F5E-1809B3C230CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CA70D88-E7B8-4633-B348-208FE4798F7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BDC575F0-710C-4E6D-8A1F-BFB236D5F8D0}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{D93D7710-D347-4C06-9B11-F16CC0FB2A7F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="339">
   <si>
     <t>Población según si es capaz de ir de compras en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>No puede</t>
@@ -83,19 +83,187 @@
     <t>Sin ayuda</t>
   </si>
   <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>65 y más</t>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>71,76%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>68,1%</t>
+  </si>
+  <si>
+    <t>62,9%</t>
+  </si>
+  <si>
+    <t>73,45%</t>
+  </si>
+  <si>
+    <t>71,8%</t>
+  </si>
+  <si>
+    <t>67,86%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
   </si>
   <si>
     <t>4,04%</t>
@@ -179,21 +347,177 @@
     <t>84,49%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
     <t>Población según si es capaz de ir de compras en 2012 (Tasa respuesta: 18,41%)</t>
   </si>
   <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>67,01%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
+  </si>
+  <si>
+    <t>73,73%</t>
+  </si>
+  <si>
+    <t>56,61%</t>
+  </si>
+  <si>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>60,68%</t>
+  </si>
+  <si>
+    <t>56,25%</t>
+  </si>
+  <si>
+    <t>64,68%</t>
+  </si>
+  <si>
     <t>9,05%</t>
   </si>
   <si>
-    <t>6,71%</t>
-  </si>
-  <si>
     <t>12,03%</t>
   </si>
   <si>
@@ -272,6 +596,159 @@
     <t>Población según si es capaz de ir de compras en 2016 (Tasa respuesta: 19,52%)</t>
   </si>
   <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
+  </si>
+  <si>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>62,0%</t>
+  </si>
+  <si>
+    <t>56,66%</t>
+  </si>
+  <si>
+    <t>67,74%</t>
+  </si>
+  <si>
+    <t>67,52%</t>
+  </si>
+  <si>
+    <t>63,49%</t>
+  </si>
+  <si>
+    <t>71,41%</t>
+  </si>
+  <si>
     <t>6,61%</t>
   </si>
   <si>
@@ -284,9 +761,6 @@
     <t>9,1%</t>
   </si>
   <si>
-    <t>6,77%</t>
-  </si>
-  <si>
     <t>11,67%</t>
   </si>
   <si>
@@ -356,85 +830,232 @@
     <t>Población según si es capaz de ir de compras en 2023 (Tasa respuesta: 31,22%)</t>
   </si>
   <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>71,6%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>75,68%</t>
+  </si>
+  <si>
+    <t>49,53%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>53,22%</t>
+  </si>
+  <si>
+    <t>58,29%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
   </si>
   <si>
     <t>9,72%</t>
   </si>
   <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>66,25%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
-  </si>
-  <si>
-    <t>73,39%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>77,53%</t>
+  </si>
+  <si>
+    <t>73,85%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
   </si>
 </sst>
 </file>
@@ -846,8 +1467,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FB1AD89-CFCC-4AC2-A650-6397D5EA199D}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C3759EA-4D16-4BEF-A49B-14BB1F95CEAD}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1874,10 +2495,10 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="D24" s="7">
-        <v>20285</v>
+        <v>2774</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>19</v>
@@ -1889,10 +2510,10 @@
         <v>21</v>
       </c>
       <c r="H24" s="7">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I24" s="7">
-        <v>55257</v>
+        <v>11309</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>22</v>
@@ -1904,10 +2525,10 @@
         <v>24</v>
       </c>
       <c r="M24" s="7">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="N24" s="7">
-        <v>75541</v>
+        <v>14083</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>25</v>
@@ -1925,10 +2546,10 @@
         <v>12</v>
       </c>
       <c r="C25" s="7">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="D25" s="7">
-        <v>40166</v>
+        <v>10841</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>28</v>
@@ -1940,10 +2561,10 @@
         <v>30</v>
       </c>
       <c r="H25" s="7">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="I25" s="7">
-        <v>94748</v>
+        <v>32166</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>31</v>
@@ -1955,10 +2576,10 @@
         <v>33</v>
       </c>
       <c r="M25" s="7">
-        <v>130</v>
+        <v>45</v>
       </c>
       <c r="N25" s="7">
-        <v>134913</v>
+        <v>43007</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>34</v>
@@ -1976,10 +2597,10 @@
         <v>13</v>
       </c>
       <c r="C26" s="7">
-        <v>459</v>
+        <v>289</v>
       </c>
       <c r="D26" s="7">
-        <v>442016</v>
+        <v>278968</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>37</v>
@@ -1991,10 +2612,10 @@
         <v>39</v>
       </c>
       <c r="H26" s="7">
-        <v>522</v>
+        <v>325</v>
       </c>
       <c r="I26" s="7">
-        <v>526838</v>
+        <v>299459</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>40</v>
@@ -2006,10 +2627,10 @@
         <v>42</v>
       </c>
       <c r="M26" s="7">
-        <v>981</v>
+        <v>614</v>
       </c>
       <c r="N26" s="7">
-        <v>968854</v>
+        <v>578426</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>43</v>
@@ -2027,10 +2648,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D27" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>46</v>
@@ -2042,10 +2663,10 @@
         <v>46</v>
       </c>
       <c r="H27" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I27" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>46</v>
@@ -2057,10 +2678,10 @@
         <v>46</v>
       </c>
       <c r="M27" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N27" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>46</v>
@@ -2074,55 +2695,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D28" s="7">
-        <v>20285</v>
+        <v>17510</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="H28" s="7">
+        <v>39</v>
+      </c>
+      <c r="I28" s="7">
+        <v>43948</v>
+      </c>
+      <c r="J28" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="I28" s="7">
-        <v>55257</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="K28" s="7" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="M28" s="7">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="N28" s="7">
-        <v>75541</v>
+        <v>61458</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2131,49 +2752,49 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D29" s="7">
-        <v>40166</v>
+        <v>29325</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="H29" s="7">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="I29" s="7">
-        <v>94748</v>
+        <v>62581</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="M29" s="7">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="N29" s="7">
-        <v>134913</v>
+        <v>91906</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2182,49 +2803,49 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
-        <v>459</v>
+        <v>170</v>
       </c>
       <c r="D30" s="7">
-        <v>442016</v>
+        <v>163048</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="H30" s="7">
-        <v>522</v>
+        <v>197</v>
       </c>
       <c r="I30" s="7">
-        <v>526838</v>
+        <v>227379</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="M30" s="7">
-        <v>981</v>
+        <v>367</v>
       </c>
       <c r="N30" s="7">
-        <v>968854</v>
+        <v>390427</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2233,63 +2854,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>220</v>
+      </c>
+      <c r="D31" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" s="7">
+        <v>290</v>
+      </c>
+      <c r="I31" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M31" s="7">
+        <v>510</v>
+      </c>
+      <c r="N31" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>22</v>
+      </c>
+      <c r="D32" s="7">
+        <v>20285</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H32" s="7">
+        <v>51</v>
+      </c>
+      <c r="I32" s="7">
+        <v>55257</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="M32" s="7">
+        <v>73</v>
+      </c>
+      <c r="N32" s="7">
+        <v>75541</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="7">
+        <v>42</v>
+      </c>
+      <c r="D33" s="7">
+        <v>40166</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H33" s="7">
+        <v>88</v>
+      </c>
+      <c r="I33" s="7">
+        <v>94748</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M33" s="7">
+        <v>130</v>
+      </c>
+      <c r="N33" s="7">
+        <v>134913</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="7">
+        <v>459</v>
+      </c>
+      <c r="D34" s="7">
+        <v>442016</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H34" s="7">
+        <v>522</v>
+      </c>
+      <c r="I34" s="7">
+        <v>526838</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M34" s="7">
+        <v>981</v>
+      </c>
+      <c r="N34" s="7">
+        <v>968854</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>523</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D35" s="7">
         <v>502466</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" s="7">
         <v>661</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I35" s="7">
         <v>676842</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M35" s="7">
         <v>1184</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N35" s="7">
         <v>1179308</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>47</v>
+      <c r="O35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2302,8 +3130,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAA71F85-2DB9-4D24-AEC7-53445682869E}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47B903B8-C4BA-4677-8221-1D4E7F665716}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2319,7 +3147,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3330,49 +4158,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="D24" s="7">
-        <v>50652</v>
+        <v>13134</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="H24" s="7">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="I24" s="7">
-        <v>112004</v>
+        <v>18695</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="M24" s="7">
-        <v>147</v>
+        <v>31</v>
       </c>
       <c r="N24" s="7">
-        <v>162656</v>
+        <v>31829</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>57</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3381,49 +4209,49 @@
         <v>12</v>
       </c>
       <c r="C25" s="7">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="D25" s="7">
-        <v>60493</v>
+        <v>15576</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="H25" s="7">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="I25" s="7">
-        <v>102906</v>
+        <v>27433</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
       <c r="M25" s="7">
-        <v>147</v>
+        <v>39</v>
       </c>
       <c r="N25" s="7">
-        <v>163399</v>
+        <v>43010</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>64</v>
+        <v>119</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>66</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3432,49 +4260,49 @@
         <v>13</v>
       </c>
       <c r="C26" s="7">
-        <v>406</v>
+        <v>256</v>
       </c>
       <c r="D26" s="7">
-        <v>448492</v>
+        <v>281075</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>68</v>
+        <v>123</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>69</v>
+        <v>124</v>
       </c>
       <c r="H26" s="7">
-        <v>498</v>
+        <v>300</v>
       </c>
       <c r="I26" s="7">
-        <v>528065</v>
+        <v>307868</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>71</v>
+        <v>126</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>72</v>
+        <v>127</v>
       </c>
       <c r="M26" s="7">
-        <v>904</v>
+        <v>556</v>
       </c>
       <c r="N26" s="7">
-        <v>976557</v>
+        <v>588944</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>75</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3483,10 +4311,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D27" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>46</v>
@@ -3498,10 +4326,10 @@
         <v>46</v>
       </c>
       <c r="H27" s="7">
-        <v>694</v>
+        <v>344</v>
       </c>
       <c r="I27" s="7">
-        <v>742975</v>
+        <v>353996</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>46</v>
@@ -3513,10 +4341,10 @@
         <v>46</v>
       </c>
       <c r="M27" s="7">
-        <v>1198</v>
+        <v>626</v>
       </c>
       <c r="N27" s="7">
-        <v>1302612</v>
+        <v>663782</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>46</v>
@@ -3530,55 +4358,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D28" s="7">
-        <v>50652</v>
+        <v>37518</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>49</v>
+        <v>131</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>50</v>
+        <v>132</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>51</v>
+        <v>133</v>
       </c>
       <c r="H28" s="7">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="I28" s="7">
-        <v>112004</v>
+        <v>93310</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>52</v>
+        <v>134</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>53</v>
+        <v>135</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>54</v>
+        <v>136</v>
       </c>
       <c r="M28" s="7">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="N28" s="7">
-        <v>162656</v>
+        <v>130828</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>55</v>
+        <v>137</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>56</v>
+        <v>138</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>57</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3587,49 +4415,49 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D29" s="7">
-        <v>60493</v>
+        <v>44917</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>58</v>
+        <v>140</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>59</v>
+        <v>141</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>60</v>
+        <v>142</v>
       </c>
       <c r="H29" s="7">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="I29" s="7">
-        <v>102906</v>
+        <v>75473</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>61</v>
+        <v>143</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>62</v>
+        <v>144</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>63</v>
+        <v>145</v>
       </c>
       <c r="M29" s="7">
+        <v>108</v>
+      </c>
+      <c r="N29" s="7">
+        <v>120390</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="N29" s="7">
-        <v>163399</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>65</v>
-      </c>
       <c r="Q29" s="7" t="s">
-        <v>66</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3638,49 +4466,49 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
-        <v>406</v>
+        <v>150</v>
       </c>
       <c r="D30" s="7">
-        <v>448492</v>
+        <v>167416</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>67</v>
+        <v>149</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>68</v>
+        <v>150</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>69</v>
+        <v>151</v>
       </c>
       <c r="H30" s="7">
-        <v>498</v>
+        <v>198</v>
       </c>
       <c r="I30" s="7">
-        <v>528065</v>
+        <v>220196</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>71</v>
+        <v>153</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>72</v>
+        <v>154</v>
       </c>
       <c r="M30" s="7">
-        <v>904</v>
+        <v>348</v>
       </c>
       <c r="N30" s="7">
-        <v>976557</v>
+        <v>387613</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>73</v>
+        <v>155</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>74</v>
+        <v>156</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>75</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3689,63 +4517,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>222</v>
+      </c>
+      <c r="D31" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" s="7">
+        <v>350</v>
+      </c>
+      <c r="I31" s="7">
+        <v>388979</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M31" s="7">
+        <v>572</v>
+      </c>
+      <c r="N31" s="7">
+        <v>638830</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>45</v>
+      </c>
+      <c r="D32" s="7">
+        <v>50652</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="H32" s="7">
+        <v>102</v>
+      </c>
+      <c r="I32" s="7">
+        <v>112004</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="M32" s="7">
+        <v>147</v>
+      </c>
+      <c r="N32" s="7">
+        <v>162656</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="7">
+        <v>53</v>
+      </c>
+      <c r="D33" s="7">
+        <v>60493</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="H33" s="7">
+        <v>94</v>
+      </c>
+      <c r="I33" s="7">
+        <v>102906</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="M33" s="7">
+        <v>147</v>
+      </c>
+      <c r="N33" s="7">
+        <v>163399</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="7">
+        <v>406</v>
+      </c>
+      <c r="D34" s="7">
+        <v>448492</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H34" s="7">
+        <v>498</v>
+      </c>
+      <c r="I34" s="7">
+        <v>528065</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="M34" s="7">
+        <v>904</v>
+      </c>
+      <c r="N34" s="7">
+        <v>976557</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>504</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D35" s="7">
         <v>559637</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" s="7">
         <v>694</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I35" s="7">
         <v>742975</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M35" s="7">
         <v>1198</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N35" s="7">
         <v>1302612</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>47</v>
+      <c r="O35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3758,8 +4793,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B50A006-DEB3-4B47-9FF6-CED23C2C00AF}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74974D23-B3E0-42FE-90DE-54E535672E8B}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3775,7 +4810,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>184</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4786,49 +5821,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="D24" s="7">
-        <v>39093</v>
+        <v>7537</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>77</v>
+        <v>185</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>78</v>
+        <v>186</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>79</v>
+        <v>187</v>
       </c>
       <c r="H24" s="7">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="I24" s="7">
-        <v>70756</v>
+        <v>9039</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>80</v>
+        <v>188</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>81</v>
+        <v>189</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>82</v>
+        <v>190</v>
       </c>
       <c r="M24" s="7">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="N24" s="7">
-        <v>109849</v>
+        <v>16576</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>83</v>
+        <v>191</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>84</v>
+        <v>192</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>85</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4837,49 +5872,49 @@
         <v>12</v>
       </c>
       <c r="C25" s="7">
+        <v>12</v>
+      </c>
+      <c r="D25" s="7">
+        <v>12028</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="H25" s="7">
+        <v>33</v>
+      </c>
+      <c r="I25" s="7">
+        <v>34176</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="M25" s="7">
         <v>45</v>
       </c>
-      <c r="D25" s="7">
-        <v>41826</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="H25" s="7">
-        <v>100</v>
-      </c>
-      <c r="I25" s="7">
-        <v>124534</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="M25" s="7">
-        <v>145</v>
-      </c>
       <c r="N25" s="7">
-        <v>166360</v>
+        <v>46204</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>92</v>
+        <v>198</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>93</v>
+        <v>199</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>94</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4888,49 +5923,49 @@
         <v>13</v>
       </c>
       <c r="C26" s="7">
-        <v>538</v>
+        <v>306</v>
       </c>
       <c r="D26" s="7">
-        <v>510409</v>
+        <v>314765</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>95</v>
+        <v>201</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>96</v>
+        <v>202</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>97</v>
+        <v>203</v>
       </c>
       <c r="H26" s="7">
-        <v>500</v>
+        <v>313</v>
       </c>
       <c r="I26" s="7">
-        <v>582641</v>
+        <v>334547</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>98</v>
+        <v>204</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>99</v>
+        <v>205</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>100</v>
+        <v>206</v>
       </c>
       <c r="M26" s="7">
-        <v>1038</v>
+        <v>619</v>
       </c>
       <c r="N26" s="7">
-        <v>1093050</v>
+        <v>649312</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>101</v>
+        <v>207</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>102</v>
+        <v>208</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>103</v>
+        <v>209</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4939,10 +5974,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D27" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>46</v>
@@ -4954,10 +5989,10 @@
         <v>46</v>
       </c>
       <c r="H27" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I27" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>46</v>
@@ -4969,10 +6004,10 @@
         <v>46</v>
       </c>
       <c r="M27" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N27" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>46</v>
@@ -4986,55 +6021,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D28" s="7">
-        <v>39093</v>
+        <v>31556</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>77</v>
+        <v>210</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>78</v>
+        <v>211</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>79</v>
+        <v>212</v>
       </c>
       <c r="H28" s="7">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="I28" s="7">
-        <v>70756</v>
+        <v>61717</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>80</v>
+        <v>213</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>81</v>
+        <v>214</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>82</v>
+        <v>215</v>
       </c>
       <c r="M28" s="7">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="N28" s="7">
-        <v>109849</v>
+        <v>93273</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>83</v>
+        <v>216</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>84</v>
+        <v>217</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>85</v>
+        <v>218</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5043,49 +6078,49 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D29" s="7">
-        <v>41826</v>
+        <v>29798</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>86</v>
+        <v>219</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>87</v>
+        <v>167</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>88</v>
+        <v>220</v>
       </c>
       <c r="H29" s="7">
+        <v>67</v>
+      </c>
+      <c r="I29" s="7">
+        <v>90358</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="M29" s="7">
         <v>100</v>
       </c>
-      <c r="I29" s="7">
-        <v>124534</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="M29" s="7">
-        <v>145</v>
-      </c>
       <c r="N29" s="7">
-        <v>166360</v>
+        <v>120156</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>92</v>
+        <v>224</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>93</v>
+        <v>225</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>94</v>
+        <v>226</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5094,49 +6129,49 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
-        <v>538</v>
+        <v>232</v>
       </c>
       <c r="D30" s="7">
-        <v>510409</v>
+        <v>195644</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>95</v>
+        <v>227</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>96</v>
+        <v>228</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>97</v>
+        <v>229</v>
       </c>
       <c r="H30" s="7">
-        <v>500</v>
+        <v>187</v>
       </c>
       <c r="I30" s="7">
-        <v>582641</v>
+        <v>248094</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>98</v>
+        <v>230</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>99</v>
+        <v>231</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>100</v>
+        <v>232</v>
       </c>
       <c r="M30" s="7">
-        <v>1038</v>
+        <v>419</v>
       </c>
       <c r="N30" s="7">
-        <v>1093050</v>
+        <v>443738</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>101</v>
+        <v>233</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>102</v>
+        <v>234</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>103</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5145,63 +6180,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>302</v>
+      </c>
+      <c r="D31" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" s="7">
+        <v>301</v>
+      </c>
+      <c r="I31" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M31" s="7">
+        <v>603</v>
+      </c>
+      <c r="N31" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>44</v>
+      </c>
+      <c r="D32" s="7">
+        <v>39093</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="H32" s="7">
+        <v>55</v>
+      </c>
+      <c r="I32" s="7">
+        <v>70756</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="M32" s="7">
+        <v>99</v>
+      </c>
+      <c r="N32" s="7">
+        <v>109849</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="7">
+        <v>45</v>
+      </c>
+      <c r="D33" s="7">
+        <v>41826</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="H33" s="7">
+        <v>100</v>
+      </c>
+      <c r="I33" s="7">
+        <v>124534</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="M33" s="7">
+        <v>145</v>
+      </c>
+      <c r="N33" s="7">
+        <v>166360</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="7">
+        <v>538</v>
+      </c>
+      <c r="D34" s="7">
+        <v>510409</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="H34" s="7">
+        <v>500</v>
+      </c>
+      <c r="I34" s="7">
+        <v>582641</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="M34" s="7">
+        <v>1038</v>
+      </c>
+      <c r="N34" s="7">
+        <v>1093050</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>627</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D35" s="7">
         <v>591328</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" s="7">
         <v>655</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I35" s="7">
         <v>777931</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M35" s="7">
         <v>1282</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N35" s="7">
         <v>1369259</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>47</v>
+      <c r="O35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5214,8 +6456,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BC02A28-B33E-4B42-BC44-9093ACCE2DA9}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA10C009-61CC-4418-9EC4-DA0607AEB72E}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5231,7 +6473,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>104</v>
+        <v>262</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6242,49 +7484,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="D24" s="7">
-        <v>48544</v>
+        <v>8956</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>105</v>
+        <v>263</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>106</v>
+        <v>264</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="H24" s="7">
-        <v>258</v>
+        <v>29</v>
       </c>
       <c r="I24" s="7">
-        <v>144067</v>
+        <v>15028</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>108</v>
+        <v>265</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>109</v>
+        <v>266</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>110</v>
+        <v>267</v>
       </c>
       <c r="M24" s="7">
-        <v>336</v>
+        <v>44</v>
       </c>
       <c r="N24" s="7">
-        <v>192611</v>
+        <v>23985</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>111</v>
+        <v>268</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>112</v>
+        <v>269</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>113</v>
+        <v>194</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6293,49 +7535,49 @@
         <v>12</v>
       </c>
       <c r="C25" s="7">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D25" s="7">
-        <v>67466</v>
+        <v>20180</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>114</v>
+        <v>270</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>115</v>
+        <v>271</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>116</v>
+        <v>272</v>
       </c>
       <c r="H25" s="7">
-        <v>292</v>
+        <v>80</v>
       </c>
       <c r="I25" s="7">
-        <v>156309</v>
+        <v>38951</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>118</v>
+        <v>273</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>119</v>
+        <v>274</v>
       </c>
       <c r="M25" s="7">
-        <v>392</v>
+        <v>113</v>
       </c>
       <c r="N25" s="7">
-        <v>223774</v>
+        <v>59131</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>120</v>
+        <v>275</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>121</v>
+        <v>276</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>122</v>
+        <v>277</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6344,49 +7586,49 @@
         <v>13</v>
       </c>
       <c r="C26" s="7">
-        <v>845</v>
+        <v>520</v>
       </c>
       <c r="D26" s="7">
-        <v>578055</v>
+        <v>337872</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>123</v>
+        <v>278</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>124</v>
+        <v>279</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>125</v>
+        <v>280</v>
       </c>
       <c r="H26" s="7">
-        <v>1157</v>
+        <v>717</v>
       </c>
       <c r="I26" s="7">
-        <v>725826</v>
+        <v>553979</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>126</v>
+        <v>281</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>127</v>
+        <v>282</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>128</v>
+        <v>283</v>
       </c>
       <c r="M26" s="7">
-        <v>2002</v>
+        <v>1237</v>
       </c>
       <c r="N26" s="7">
-        <v>1303882</v>
+        <v>891852</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>129</v>
+        <v>284</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>130</v>
+        <v>285</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>131</v>
+        <v>286</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6395,10 +7637,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>1023</v>
+        <v>568</v>
       </c>
       <c r="D27" s="7">
-        <v>694065</v>
+        <v>367009</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>46</v>
@@ -6410,10 +7652,10 @@
         <v>46</v>
       </c>
       <c r="H27" s="7">
-        <v>1707</v>
+        <v>826</v>
       </c>
       <c r="I27" s="7">
-        <v>1026202</v>
+        <v>607958</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>46</v>
@@ -6425,10 +7667,10 @@
         <v>46</v>
       </c>
       <c r="M27" s="7">
-        <v>2730</v>
+        <v>1394</v>
       </c>
       <c r="N27" s="7">
-        <v>1720267</v>
+        <v>974968</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>46</v>
@@ -6442,55 +7684,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="D28" s="7">
-        <v>48544</v>
+        <v>36952</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>105</v>
+        <v>287</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>106</v>
+        <v>288</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>107</v>
+        <v>289</v>
       </c>
       <c r="H28" s="7">
-        <v>258</v>
+        <v>229</v>
       </c>
       <c r="I28" s="7">
-        <v>144067</v>
+        <v>113573</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>108</v>
+        <v>290</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>109</v>
+        <v>291</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>110</v>
+        <v>292</v>
       </c>
       <c r="M28" s="7">
-        <v>336</v>
+        <v>292</v>
       </c>
       <c r="N28" s="7">
-        <v>192611</v>
+        <v>150526</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>111</v>
+        <v>293</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>112</v>
+        <v>294</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6499,49 +7741,49 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="D29" s="7">
-        <v>67466</v>
+        <v>42737</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>114</v>
+        <v>295</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>115</v>
+        <v>296</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>116</v>
+        <v>297</v>
       </c>
       <c r="H29" s="7">
-        <v>292</v>
+        <v>212</v>
       </c>
       <c r="I29" s="7">
-        <v>156309</v>
+        <v>101345</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>117</v>
+        <v>298</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>118</v>
+        <v>299</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>119</v>
+        <v>300</v>
       </c>
       <c r="M29" s="7">
-        <v>392</v>
+        <v>279</v>
       </c>
       <c r="N29" s="7">
-        <v>223774</v>
+        <v>144082</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>120</v>
+        <v>301</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>121</v>
+        <v>302</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>122</v>
+        <v>303</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6550,49 +7792,49 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
-        <v>845</v>
+        <v>325</v>
       </c>
       <c r="D30" s="7">
-        <v>578055</v>
+        <v>200861</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>123</v>
+        <v>304</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>124</v>
+        <v>305</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>125</v>
+        <v>306</v>
       </c>
       <c r="H30" s="7">
-        <v>1157</v>
+        <v>440</v>
       </c>
       <c r="I30" s="7">
-        <v>725826</v>
+        <v>210912</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>126</v>
+        <v>307</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>127</v>
+        <v>308</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>128</v>
+        <v>309</v>
       </c>
       <c r="M30" s="7">
-        <v>2002</v>
+        <v>765</v>
       </c>
       <c r="N30" s="7">
-        <v>1303882</v>
+        <v>411773</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>129</v>
+        <v>310</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>130</v>
+        <v>311</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>131</v>
+        <v>312</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6601,63 +7843,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>455</v>
+      </c>
+      <c r="D31" s="7">
+        <v>280550</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" s="7">
+        <v>881</v>
+      </c>
+      <c r="I31" s="7">
+        <v>425831</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M31" s="7">
+        <v>1336</v>
+      </c>
+      <c r="N31" s="7">
+        <v>706381</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>78</v>
+      </c>
+      <c r="D32" s="7">
+        <v>45908</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="H32" s="7">
+        <v>258</v>
+      </c>
+      <c r="I32" s="7">
+        <v>128602</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="M32" s="7">
+        <v>336</v>
+      </c>
+      <c r="N32" s="7">
+        <v>174510</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="7">
+        <v>100</v>
+      </c>
+      <c r="D33" s="7">
+        <v>62917</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="H33" s="7">
+        <v>292</v>
+      </c>
+      <c r="I33" s="7">
+        <v>140296</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="M33" s="7">
+        <v>392</v>
+      </c>
+      <c r="N33" s="7">
+        <v>203214</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="7">
+        <v>845</v>
+      </c>
+      <c r="D34" s="7">
+        <v>538733</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="H34" s="7">
+        <v>1157</v>
+      </c>
+      <c r="I34" s="7">
+        <v>764891</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="M34" s="7">
+        <v>2002</v>
+      </c>
+      <c r="N34" s="7">
+        <v>1303624</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>1023</v>
       </c>
-      <c r="D31" s="7">
-        <v>694065</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="D35" s="7">
+        <v>647559</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" s="7">
         <v>1707</v>
       </c>
-      <c r="I31" s="7">
-        <v>1026202</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="I35" s="7">
+        <v>1033789</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M35" s="7">
         <v>2730</v>
       </c>
-      <c r="N31" s="7">
-        <v>1720267</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>47</v>
+      <c r="N35" s="7">
+        <v>1681348</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
